--- a/Calendar.xlsx
+++ b/Calendar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabinab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E116E-B218-4852-8602-0D91CB5CFB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E86D75-F784-407D-ADE6-442D1F7C6FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{AA0F38B1-B9F5-43E0-846E-4D17CF230518}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4C1D413F-8113-423F-8B9B-E678257E444B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,54 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
-  <si>
-    <t>Monday</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>Thursday</t>
-  </si>
-  <si>
-    <t>Friday</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>Sunday</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Day</t>
   </si>
   <si>
     <t>Define Project Lifecycle</t>
@@ -105,16 +60,7 @@
     <t>EDA</t>
   </si>
   <si>
-    <t>Combine EDA work together</t>
-  </si>
-  <si>
-    <t>Presentation Slide</t>
-  </si>
-  <si>
-    <t>Review slide with discussion</t>
-  </si>
-  <si>
-    <t>Rest</t>
+    <t>Review Slide with Discussions</t>
   </si>
   <si>
     <t>Model Building</t>
@@ -127,14 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +112,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +125,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -237,26 +164,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
       </patternFill>
     </fill>
     <fill>
@@ -265,7 +183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,21 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -319,53 +222,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="12"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="5"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="11"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="13"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="10"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="8" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="14">
-    <cellStyle name="40 % - Accent2" xfId="9" builtinId="35"/>
-    <cellStyle name="60 % - Accent2" xfId="10" builtinId="36"/>
-    <cellStyle name="60 % - Accent3" xfId="11" builtinId="40"/>
-    <cellStyle name="60 % - Accent5" xfId="12" builtinId="48"/>
-    <cellStyle name="Accent1" xfId="8" builtinId="29"/>
-    <cellStyle name="Accent6" xfId="13" builtinId="49"/>
-    <cellStyle name="Avertissement" xfId="6" builtinId="11"/>
+  <cellStyles count="11">
+    <cellStyle name="Accent1" xfId="6" builtinId="29"/>
+    <cellStyle name="Accent2" xfId="7" builtinId="33"/>
+    <cellStyle name="Accent3" xfId="8" builtinId="37"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
+    <cellStyle name="Accent6" xfId="10" builtinId="49"/>
+    <cellStyle name="Calcul" xfId="5" builtinId="22"/>
     <cellStyle name="Entrée" xfId="4" builtinId="20"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Neutre" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="7" builtinId="10"/>
     <cellStyle name="Satisfaisant" xfId="1" builtinId="26"/>
-    <cellStyle name="Vérification" xfId="5" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -676,204 +570,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387BEFB8-3579-4020-A308-94F5311EAF1A}">
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD87C1A0-B13C-408D-92F6-8C7AC708E910}">
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>15</v>
+      </c>
+      <c r="D1">
+        <v>16</v>
+      </c>
+      <c r="E1">
+        <v>17</v>
+      </c>
+      <c r="F1">
+        <v>18</v>
+      </c>
+      <c r="G1">
+        <v>19</v>
+      </c>
+      <c r="H1">
+        <v>20</v>
+      </c>
+      <c r="I1">
+        <v>21</v>
+      </c>
+      <c r="J1">
+        <v>22</v>
+      </c>
+      <c r="K1">
+        <v>23</v>
+      </c>
+      <c r="L1">
+        <v>24</v>
+      </c>
+      <c r="M1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="7" t="s">
-        <v>22</v>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>